--- a/data/raw/eval_all.xlsx
+++ b/data/raw/eval_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evie/Desktop/l4_final/app/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF20F8A-A596-FB43-8570-083D39A0F72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC6698F-2D7E-9147-A789-BF51C49D05AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="940" windowWidth="18200" windowHeight="16340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demo_survey" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="88">
   <si>
     <t>Timestamp</t>
   </si>
@@ -171,61 +171,10 @@
     <t xml:space="preserve">I think it would be a useful tool for lots of taught courses. </t>
   </si>
   <si>
-    <t>So easy to navigate and liked access to tutor</t>
-  </si>
-  <si>
-    <t>The colours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thought it would be really helpful </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The app seems very well created and simple to use, I can see how it would be useful for students and a good and anonymous way to feedback with tutors </t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>I think this would be a useful application that can be applied to all different university courses</t>
-  </si>
-  <si>
-    <t>It seemed easy to learn and use from the start.</t>
-  </si>
-  <si>
-    <t>Elderly people may struggle to use this application due to its slightly more advanced build.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional and clear </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy to use first time </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User friendly </t>
-  </si>
-  <si>
-    <t xml:space="preserve">I thought the layout was very clear and seemed very easy to use. Also, it would be very useful to know how difficult my peers were finding aspects of the course, I think this would make me feel less stressed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">great job sweetie </t>
-  </si>
-  <si>
     <t>25-29</t>
-  </si>
-  <si>
-    <t>user friendly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I think notifications could be used for other things </t>
-  </si>
-  <si>
-    <t>Seemed really easy to use - Can see benefits (particularly earlier in course)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No issues observed </t>
-  </si>
-  <si>
-    <t>This would be a really useful tool in helping to start conversations on difficult topics / concerns that are sometimes hard to bring up</t>
   </si>
   <si>
     <t xml:space="preserve">Log in to the application with the following student credentials
@@ -342,6 +291,21 @@
   </si>
   <si>
     <t>Demo</t>
+  </si>
+  <si>
+    <t>Did you complete a computing science course geared towards novice programmers? (This will be referred to as CS1 in the following questions)</t>
+  </si>
+  <si>
+    <t>I was unsure of how I was performing compared to other students studying CS1</t>
+  </si>
+  <si>
+    <t>I found it strongly affected my mood when I could not complete a computing task in a lab</t>
+  </si>
+  <si>
+    <t>I would have liked to use an application that helped me understand how other students were finding CS1 courses</t>
+  </si>
+  <si>
+    <t>I found the survey method and feedback provided an effective method of determining my affective state regarding a lab</t>
   </si>
 </sst>
 </file>
@@ -351,7 +315,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -362,11 +326,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,11 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,22 +594,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:V124"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:L24"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="93" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="11" width="18.83203125" customWidth="1"/>
+    <col min="1" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="7" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="10" max="10" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
     <col min="12" max="12" width="20.6640625" customWidth="1"/>
     <col min="13" max="13" width="36.5" customWidth="1"/>
-    <col min="14" max="22" width="18.83203125" customWidth="1"/>
+    <col min="14" max="16" width="18.83203125" customWidth="1"/>
+    <col min="17" max="17" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.83203125" customWidth="1"/>
+    <col min="20" max="20" width="57.83203125" customWidth="1"/>
+    <col min="21" max="23" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,47 +632,62 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>45004.685132013889</v>
       </c>
@@ -696,20 +700,14 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
       <c r="I2" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3">
         <v>1</v>
@@ -718,19 +716,34 @@
         <v>5</v>
       </c>
       <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>5</v>
+      </c>
+      <c r="P2" s="4">
         <v>2</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="4">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>45004.690905694442</v>
       </c>
@@ -743,20 +756,20 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
       </c>
       <c r="I3" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
         <v>1</v>
@@ -767,20 +780,35 @@
       <c r="L3" s="3">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="4">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>45004.694150277777</v>
       </c>
@@ -793,47 +821,54 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
-        <v>5</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="4">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>5</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>45004.700535439813</v>
       </c>
@@ -846,18 +881,10 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
       <c r="I5" s="3">
         <v>3</v>
       </c>
@@ -865,22 +892,37 @@
         <v>2</v>
       </c>
       <c r="K5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="3">
         <v>2</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>3</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V5" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>45004.701925300928</v>
       </c>
@@ -893,47 +935,54 @@
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>5</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
         <v>2</v>
       </c>
-      <c r="I6" s="3">
-        <v>5</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>5</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V6" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>45004.707901284724</v>
       </c>
@@ -946,20 +995,20 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>4</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
       </c>
       <c r="I7" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J7" s="3">
         <v>1</v>
@@ -970,17 +1019,32 @@
       <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="4">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>4</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>4</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V7" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>45004.709289629631</v>
       </c>
@@ -993,18 +1057,12 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="3">
         <v>4</v>
       </c>
@@ -1015,19 +1073,34 @@
         <v>4</v>
       </c>
       <c r="L8" s="3">
-        <v>4</v>
-      </c>
-      <c r="M8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>4</v>
+      </c>
+      <c r="N8" s="4">
+        <v>3</v>
+      </c>
+      <c r="O8" s="4">
+        <v>4</v>
+      </c>
+      <c r="P8" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>5</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>45004.711987465278</v>
       </c>
@@ -1040,35 +1113,50 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
+      <c r="G9" s="4">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5</v>
       </c>
       <c r="I9" s="3">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
         <v>2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="O9" s="4">
         <v>3</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="4">
         <v>2</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q9" s="4">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>45004.718117569442</v>
       </c>
@@ -1081,18 +1169,12 @@
       <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="3">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="3">
         <v>4</v>
       </c>
@@ -1105,20 +1187,35 @@
       <c r="L10" s="3">
         <v>1</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="4">
+        <v>4</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>5</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>45004.726295775465</v>
       </c>
@@ -1131,18 +1228,10 @@
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3">
-        <v>4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <v>4</v>
-      </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="3">
         <v>4</v>
       </c>
@@ -1150,22 +1239,37 @@
         <v>2</v>
       </c>
       <c r="K11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" s="3">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>4</v>
+      </c>
+      <c r="N11" s="4">
         <v>2</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="O11" s="4">
+        <v>5</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>3</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>45004.730321458337</v>
       </c>
@@ -1178,20 +1282,14 @@
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
@@ -1202,20 +1300,35 @@
       <c r="L12" s="3">
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="4">
+        <v>5</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>5</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>2</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>45004.770427650466</v>
       </c>
@@ -1228,18 +1341,10 @@
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="3">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="I13" s="3">
         <v>5</v>
       </c>
@@ -1252,20 +1357,26 @@
       <c r="L13" s="3">
         <v>1</v>
       </c>
-      <c r="M13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>45004.794890023149</v>
       </c>
@@ -1278,18 +1389,10 @@
       <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="3">
         <v>5</v>
       </c>
@@ -1302,20 +1405,26 @@
       <c r="L14" s="3">
         <v>1</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M14" s="4">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>5</v>
+      </c>
+      <c r="P14" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>4</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>45004.798329814817</v>
       </c>
@@ -1328,18 +1437,9 @@
       <c r="D15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="3">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3">
-        <v>4</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="3">
         <v>4</v>
       </c>
@@ -1352,20 +1452,26 @@
       <c r="L15" s="3">
         <v>1</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M15" s="4">
+        <v>4</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>5</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>4</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>45004.802253055561</v>
       </c>
@@ -1378,18 +1484,10 @@
       <c r="D16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="3">
         <v>4</v>
       </c>
@@ -1402,20 +1500,26 @@
       <c r="L16" s="3">
         <v>5</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M16" s="4">
+        <v>4</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>5</v>
+      </c>
+      <c r="P16" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>4</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>45004.815588263889</v>
       </c>
@@ -1428,18 +1532,10 @@
       <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="3">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
       <c r="I17" s="3">
         <v>5</v>
       </c>
@@ -1452,23 +1548,26 @@
       <c r="L17" s="3">
         <v>1</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="4">
+        <v>5</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>5</v>
+      </c>
+      <c r="P17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>3</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>45005.396770833337</v>
       </c>
@@ -1479,19 +1578,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="3">
-        <v>4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4">
+        <v>3</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5</v>
       </c>
       <c r="I18" s="3">
         <v>5</v>
@@ -1505,14 +1604,26 @@
       <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M18" s="4">
+        <v>5</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>4</v>
+      </c>
+      <c r="P18" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>5</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>45005.482245370367</v>
       </c>
@@ -1525,17 +1636,17 @@
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="4">
         <v>3</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="3">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
       </c>
       <c r="I19" s="3">
         <v>5</v>
@@ -1549,11 +1660,26 @@
       <c r="L19" s="3">
         <v>1</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M19" s="4">
+        <v>5</v>
+      </c>
+      <c r="N19" s="4">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>5</v>
+      </c>
+      <c r="P19" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>5</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>45005.563310185185</v>
       </c>
@@ -1566,17 +1692,17 @@
       <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1</v>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>5</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3</v>
       </c>
       <c r="I20" s="3">
         <v>4</v>
@@ -1590,11 +1716,26 @@
       <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M20" s="4">
+        <v>4</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4">
+        <v>5</v>
+      </c>
+      <c r="P20" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>4</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>45005.628657407404</v>
       </c>
@@ -1607,18 +1748,9 @@
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="3">
-        <v>2</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>5</v>
-      </c>
-      <c r="H21" s="3">
-        <v>2</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="3">
         <v>5</v>
       </c>
@@ -1631,14 +1763,26 @@
       <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M21" s="4">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>5</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>45005.642581018517</v>
       </c>
@@ -1651,17 +1795,17 @@
       <c r="D22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>5</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1</v>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5</v>
       </c>
       <c r="I22" s="3">
         <v>4</v>
@@ -1675,11 +1819,26 @@
       <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="Q22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M22" s="4">
+        <v>4</v>
+      </c>
+      <c r="N22" s="4">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>5</v>
+      </c>
+      <c r="P22" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>3</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>45005.709849537037</v>
       </c>
@@ -1692,18 +1851,10 @@
       <c r="D23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="3">
-        <v>2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>4</v>
-      </c>
-      <c r="G23" s="3">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="3">
         <v>4</v>
       </c>
@@ -1716,11 +1867,26 @@
       <c r="L23" s="3">
         <v>2</v>
       </c>
-      <c r="Q23" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M23" s="4">
+        <v>4</v>
+      </c>
+      <c r="N23" s="4">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>4</v>
+      </c>
+      <c r="P23" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>5</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>45005.781261574077</v>
       </c>
@@ -1733,17 +1899,17 @@
       <c r="D24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <v>3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>5</v>
@@ -1757,20 +1923,727 @@
       <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="M24" s="4">
+        <v>5</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>4</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+    </row>
+    <row r="49" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+    </row>
+    <row r="50" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+    </row>
+    <row r="51" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+    </row>
+    <row r="52" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+    </row>
+    <row r="56" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+    </row>
+    <row r="57" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+    </row>
+    <row r="59" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+    </row>
+    <row r="60" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+    </row>
+    <row r="61" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+    </row>
+    <row r="62" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+    </row>
+    <row r="63" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+    </row>
+    <row r="64" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+    </row>
+    <row r="65" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+    </row>
+    <row r="66" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+    </row>
+    <row r="67" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+    </row>
+    <row r="68" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+    </row>
+    <row r="69" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+    </row>
+    <row r="70" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+    </row>
+    <row r="71" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+    </row>
+    <row r="72" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+    </row>
+    <row r="73" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+    </row>
+    <row r="74" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+    </row>
+    <row r="75" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+    </row>
+    <row r="76" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+    </row>
+    <row r="77" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+    </row>
+    <row r="78" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+    </row>
+    <row r="79" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+    </row>
+    <row r="80" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+    </row>
+    <row r="81" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+    </row>
+    <row r="82" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+    </row>
+    <row r="89" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+    </row>
+    <row r="90" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+    </row>
+    <row r="91" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4"/>
+      <c r="Q91" s="4"/>
+    </row>
+    <row r="92" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+    </row>
+    <row r="93" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+    </row>
+    <row r="94" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+    </row>
+    <row r="95" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+    </row>
+    <row r="96" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+    </row>
+    <row r="97" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+    </row>
+    <row r="98" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+    </row>
+    <row r="99" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+    </row>
+    <row r="100" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+    </row>
+    <row r="101" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+    </row>
+    <row r="102" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+    </row>
+    <row r="103" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+    </row>
+    <row r="104" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+    </row>
+    <row r="105" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+    </row>
+    <row r="106" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+    </row>
+    <row r="107" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+    </row>
+    <row r="108" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+    </row>
+    <row r="109" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+    </row>
+    <row r="110" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+    </row>
+    <row r="111" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+    </row>
+    <row r="112" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+    </row>
+    <row r="113" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+    </row>
+    <row r="114" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+    </row>
+    <row r="115" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+    </row>
+    <row r="116" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+    </row>
+    <row r="117" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+    </row>
+    <row r="118" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+    </row>
+    <row r="119" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+    </row>
+    <row r="120" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+    </row>
+    <row r="121" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="4"/>
+      <c r="Q121" s="4"/>
+    </row>
+    <row r="122" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+    </row>
+    <row r="123" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+    </row>
+    <row r="124" spans="13:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="4"/>
+      <c r="Q124" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -1781,22 +2654,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AO124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="50" workbookViewId="0">
+    <sheetView topLeftCell="AD1" zoomScale="65" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W2" sqref="W2:AF12"/>
+      <selection pane="bottomLeft" activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="32" width="18.83203125" customWidth="1"/>
-    <col min="33" max="33" width="99.6640625" customWidth="1"/>
-    <col min="34" max="34" width="32.1640625" customWidth="1"/>
-    <col min="35" max="42" width="18.83203125" customWidth="1"/>
+    <col min="1" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="117.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="36" width="18.83203125" customWidth="1"/>
+    <col min="37" max="37" width="88.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="99.6640625" customWidth="1"/>
+    <col min="39" max="39" width="32.1640625" customWidth="1"/>
+    <col min="40" max="47" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,104 +2685,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>45004.550219907411</v>
       </c>
@@ -1920,70 +2811,70 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" s="1">
-        <v>4</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA2" s="1">
         <v>4</v>
@@ -1992,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="AC2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD2" s="1">
         <v>1</v>
@@ -2003,8 +2894,23 @@
       <c r="AF2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>45004.719239745369</v>
       </c>
@@ -2017,89 +2923,95 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" s="1">
+        <v>70</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA3" s="1">
         <v>3</v>
       </c>
-      <c r="X3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>5</v>
-      </c>
       <c r="AB3" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="1">
         <v>2</v>
       </c>
-      <c r="AE3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>45004.743486157407</v>
       </c>
@@ -2113,97 +3025,112 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" s="1">
-        <v>4</v>
-      </c>
-      <c r="X4" s="1">
+        <v>70</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1">
         <v>2</v>
       </c>
-      <c r="Y4" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z4" s="1">
+      <c r="AC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="1">
         <v>2</v>
       </c>
-      <c r="AA4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>1</v>
-      </c>
       <c r="AE4" s="1">
         <v>4</v>
       </c>
       <c r="AF4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>45004.750173611108</v>
       </c>
@@ -2217,94 +3144,109 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W5" s="1">
-        <v>5</v>
-      </c>
-      <c r="X5" s="1">
+        <v>70</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1">
         <v>2</v>
       </c>
-      <c r="Y5" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
       <c r="AC5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="1">
         <v>2</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AI5" s="1">
         <v>3</v>
       </c>
-      <c r="AF5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>45004.764282407406</v>
       </c>
@@ -2318,91 +3260,106 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W6" s="1">
-        <v>4</v>
-      </c>
-      <c r="X6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB6" s="1">
         <v>1</v>
       </c>
       <c r="AC6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="1">
         <v>2</v>
       </c>
-      <c r="AE6" s="1">
-        <v>5</v>
-      </c>
-      <c r="AF6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>45004.79550925926</v>
       </c>
@@ -2416,100 +3373,109 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" s="1">
-        <v>5</v>
-      </c>
-      <c r="X7" s="1">
+        <v>70</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="1">
         <v>2</v>
       </c>
-      <c r="Y7" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB7" s="1">
-        <v>1</v>
-      </c>
       <c r="AC7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH7" s="1">
         <v>2</v>
       </c>
-      <c r="AE7" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="1">
+      <c r="AI7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="1">
         <v>2</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AK7" s="4">
+        <v>5</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>45004.766826574079</v>
       </c>
@@ -2523,70 +3489,70 @@
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W8" s="1">
-        <v>4</v>
-      </c>
-      <c r="X8" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA8" s="1">
         <v>4</v>
@@ -2601,22 +3567,37 @@
         <v>1</v>
       </c>
       <c r="AE8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
       </c>
-      <c r="AG8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>45004.806689814817</v>
       </c>
@@ -2629,92 +3610,99 @@
       <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W9" s="1">
+        <v>70</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA9" s="1">
         <v>3</v>
       </c>
-      <c r="X9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="1">
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1">
         <v>3</v>
       </c>
-      <c r="AA9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH9" s="1">
         <v>2</v>
       </c>
-      <c r="AE9" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AI9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>45004.836840277778</v>
       </c>
@@ -2728,91 +3716,106 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>4</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" s="1">
-        <v>4</v>
-      </c>
-      <c r="X10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB10" s="1">
         <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD10" s="1">
         <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG10" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>45004.846006944441</v>
       </c>
@@ -2825,80 +3828,72 @@
       <c r="D11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W11" s="1">
+        <v>70</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA11" s="1">
         <v>3</v>
       </c>
-      <c r="X11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>4</v>
-      </c>
       <c r="AB11" s="1">
         <v>1</v>
       </c>
       <c r="AC11" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AD11" s="1">
         <v>1</v>
@@ -2907,10 +3902,25 @@
         <v>4</v>
       </c>
       <c r="AF11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>45008.864756944444</v>
       </c>
@@ -2924,73 +3934,73 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>87</v>
+        <v>16</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>4</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="W12" s="1">
-        <v>4</v>
-      </c>
-      <c r="X12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA12" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB12" s="1">
         <v>1</v>
@@ -3002,11 +4012,474 @@
         <v>1</v>
       </c>
       <c r="AE12" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>2</v>
       </c>
+      <c r="AK12" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="4"/>
+      <c r="AK13" s="4"/>
+    </row>
+    <row r="14" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="4"/>
+      <c r="AK14" s="4"/>
+    </row>
+    <row r="15" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="4"/>
+      <c r="AK15" s="4"/>
+    </row>
+    <row r="16" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="4"/>
+      <c r="AK16" s="4"/>
+    </row>
+    <row r="17" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="4"/>
+      <c r="AK17" s="4"/>
+    </row>
+    <row r="18" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="4"/>
+      <c r="AK18" s="4"/>
+    </row>
+    <row r="19" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="4"/>
+      <c r="AK19" s="4"/>
+    </row>
+    <row r="20" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="4"/>
+      <c r="AK20" s="4"/>
+    </row>
+    <row r="21" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="4"/>
+      <c r="AK21" s="4"/>
+    </row>
+    <row r="22" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="4"/>
+      <c r="AK22" s="4"/>
+    </row>
+    <row r="23" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" s="4"/>
+      <c r="AK23" s="4"/>
+    </row>
+    <row r="24" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="4"/>
+      <c r="AK24" s="4"/>
+    </row>
+    <row r="25" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="4"/>
+      <c r="AK25" s="4"/>
+    </row>
+    <row r="26" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="4"/>
+      <c r="AK26" s="4"/>
+    </row>
+    <row r="27" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="4"/>
+      <c r="AK27" s="4"/>
+    </row>
+    <row r="28" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="4"/>
+      <c r="AK28" s="4"/>
+    </row>
+    <row r="29" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="4"/>
+      <c r="AK29" s="4"/>
+    </row>
+    <row r="30" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="4"/>
+      <c r="AK30" s="4"/>
+    </row>
+    <row r="31" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="4"/>
+      <c r="AK31" s="4"/>
+    </row>
+    <row r="32" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="4"/>
+      <c r="AK32" s="4"/>
+    </row>
+    <row r="33" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="4"/>
+      <c r="AK33" s="4"/>
+    </row>
+    <row r="34" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="4"/>
+      <c r="AK34" s="4"/>
+    </row>
+    <row r="35" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="4"/>
+      <c r="AK35" s="4"/>
+    </row>
+    <row r="36" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="4"/>
+      <c r="AK36" s="4"/>
+    </row>
+    <row r="37" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="4"/>
+      <c r="AK37" s="4"/>
+    </row>
+    <row r="38" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="4"/>
+      <c r="AK38" s="4"/>
+    </row>
+    <row r="39" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="4"/>
+      <c r="AK39" s="4"/>
+    </row>
+    <row r="40" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="4"/>
+      <c r="AK40" s="4"/>
+    </row>
+    <row r="41" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="4"/>
+      <c r="AK41" s="4"/>
+    </row>
+    <row r="42" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="4"/>
+      <c r="AK42" s="4"/>
+    </row>
+    <row r="43" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="4"/>
+      <c r="AK43" s="4"/>
+    </row>
+    <row r="44" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="4"/>
+      <c r="AK44" s="4"/>
+    </row>
+    <row r="45" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="4"/>
+      <c r="AK45" s="4"/>
+    </row>
+    <row r="46" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="4"/>
+      <c r="AK46" s="4"/>
+    </row>
+    <row r="47" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="4"/>
+      <c r="AK47" s="4"/>
+    </row>
+    <row r="48" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="4"/>
+      <c r="AK48" s="4"/>
+    </row>
+    <row r="49" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="4"/>
+      <c r="AK49" s="4"/>
+    </row>
+    <row r="50" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="4"/>
+      <c r="AK50" s="4"/>
+    </row>
+    <row r="51" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="4"/>
+      <c r="AK51" s="4"/>
+    </row>
+    <row r="52" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="4"/>
+      <c r="AK52" s="4"/>
+    </row>
+    <row r="53" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="4"/>
+      <c r="AK53" s="4"/>
+    </row>
+    <row r="54" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="4"/>
+      <c r="AK54" s="4"/>
+    </row>
+    <row r="55" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="4"/>
+      <c r="AK55" s="4"/>
+    </row>
+    <row r="56" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="4"/>
+      <c r="AK56" s="4"/>
+    </row>
+    <row r="57" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="4"/>
+      <c r="AK57" s="4"/>
+    </row>
+    <row r="58" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="4"/>
+      <c r="AK58" s="4"/>
+    </row>
+    <row r="59" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="4"/>
+      <c r="AK59" s="4"/>
+    </row>
+    <row r="60" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="4"/>
+      <c r="AK60" s="4"/>
+    </row>
+    <row r="61" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="4"/>
+      <c r="AK61" s="4"/>
+    </row>
+    <row r="62" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="4"/>
+      <c r="AK62" s="4"/>
+    </row>
+    <row r="63" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="4"/>
+      <c r="AK63" s="4"/>
+    </row>
+    <row r="64" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F64" s="4"/>
+      <c r="AK64" s="4"/>
+    </row>
+    <row r="65" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="4"/>
+      <c r="AK65" s="4"/>
+    </row>
+    <row r="66" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="4"/>
+      <c r="AK66" s="4"/>
+    </row>
+    <row r="67" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="4"/>
+      <c r="AK67" s="4"/>
+    </row>
+    <row r="68" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="4"/>
+      <c r="AK68" s="4"/>
+    </row>
+    <row r="69" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="4"/>
+      <c r="AK69" s="4"/>
+    </row>
+    <row r="70" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="4"/>
+      <c r="AK70" s="4"/>
+    </row>
+    <row r="71" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="4"/>
+      <c r="AK71" s="4"/>
+    </row>
+    <row r="72" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="4"/>
+      <c r="AK72" s="4"/>
+    </row>
+    <row r="73" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="4"/>
+      <c r="AK73" s="4"/>
+    </row>
+    <row r="74" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="4"/>
+      <c r="AK74" s="4"/>
+    </row>
+    <row r="75" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="4"/>
+      <c r="AK75" s="4"/>
+    </row>
+    <row r="76" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="4"/>
+      <c r="AK76" s="4"/>
+    </row>
+    <row r="77" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="4"/>
+      <c r="AK77" s="4"/>
+    </row>
+    <row r="78" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="4"/>
+      <c r="AK78" s="4"/>
+    </row>
+    <row r="79" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="4"/>
+      <c r="AK79" s="4"/>
+    </row>
+    <row r="80" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="4"/>
+      <c r="AK80" s="4"/>
+    </row>
+    <row r="81" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="4"/>
+      <c r="AK81" s="4"/>
+    </row>
+    <row r="82" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F82" s="4"/>
+      <c r="AK82" s="4"/>
+    </row>
+    <row r="83" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F83" s="4"/>
+      <c r="AK83" s="4"/>
+    </row>
+    <row r="84" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F84" s="4"/>
+      <c r="AK84" s="4"/>
+    </row>
+    <row r="85" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F85" s="4"/>
+      <c r="AK85" s="4"/>
+    </row>
+    <row r="86" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F86" s="4"/>
+      <c r="AK86" s="4"/>
+    </row>
+    <row r="87" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F87" s="4"/>
+      <c r="AK87" s="4"/>
+    </row>
+    <row r="88" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F88" s="4"/>
+      <c r="AK88" s="4"/>
+    </row>
+    <row r="89" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F89" s="4"/>
+      <c r="AK89" s="4"/>
+    </row>
+    <row r="90" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F90" s="4"/>
+      <c r="AK90" s="4"/>
+    </row>
+    <row r="91" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F91" s="4"/>
+      <c r="AK91" s="4"/>
+    </row>
+    <row r="92" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F92" s="4"/>
+      <c r="AK92" s="4"/>
+    </row>
+    <row r="93" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F93" s="4"/>
+      <c r="AK93" s="4"/>
+    </row>
+    <row r="94" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F94" s="4"/>
+      <c r="AK94" s="4"/>
+    </row>
+    <row r="95" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F95" s="4"/>
+      <c r="AK95" s="4"/>
+    </row>
+    <row r="96" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F96" s="4"/>
+      <c r="AK96" s="4"/>
+    </row>
+    <row r="97" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F97" s="4"/>
+      <c r="AK97" s="4"/>
+    </row>
+    <row r="98" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F98" s="4"/>
+      <c r="AK98" s="4"/>
+    </row>
+    <row r="99" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F99" s="4"/>
+      <c r="AK99" s="4"/>
+    </row>
+    <row r="100" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F100" s="4"/>
+      <c r="AK100" s="4"/>
+    </row>
+    <row r="101" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F101" s="4"/>
+      <c r="AK101" s="4"/>
+    </row>
+    <row r="102" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F102" s="4"/>
+      <c r="AK102" s="4"/>
+    </row>
+    <row r="103" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F103" s="4"/>
+      <c r="AK103" s="4"/>
+    </row>
+    <row r="104" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F104" s="4"/>
+      <c r="AK104" s="4"/>
+    </row>
+    <row r="105" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F105" s="4"/>
+      <c r="AK105" s="4"/>
+    </row>
+    <row r="106" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F106" s="4"/>
+      <c r="AK106" s="4"/>
+    </row>
+    <row r="107" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F107" s="4"/>
+      <c r="AK107" s="4"/>
+    </row>
+    <row r="108" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F108" s="4"/>
+      <c r="AK108" s="4"/>
+    </row>
+    <row r="109" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F109" s="4"/>
+      <c r="AK109" s="4"/>
+    </row>
+    <row r="110" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F110" s="4"/>
+      <c r="AK110" s="4"/>
+    </row>
+    <row r="111" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F111" s="4"/>
+      <c r="AK111" s="4"/>
+    </row>
+    <row r="112" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F112" s="4"/>
+      <c r="AK112" s="4"/>
+    </row>
+    <row r="113" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F113" s="4"/>
+      <c r="AK113" s="4"/>
+    </row>
+    <row r="114" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="4"/>
+      <c r="AK114" s="4"/>
+    </row>
+    <row r="115" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F115" s="4"/>
+      <c r="AK115" s="4"/>
+    </row>
+    <row r="116" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="4"/>
+      <c r="AK116" s="4"/>
+    </row>
+    <row r="117" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="4"/>
+      <c r="AK117" s="4"/>
+    </row>
+    <row r="118" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="4"/>
+      <c r="AK118" s="4"/>
+    </row>
+    <row r="119" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="4"/>
+      <c r="AK119" s="4"/>
+    </row>
+    <row r="120" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="4"/>
+      <c r="AK120" s="4"/>
+    </row>
+    <row r="121" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="4"/>
+      <c r="AK121" s="4"/>
+    </row>
+    <row r="122" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="4"/>
+      <c r="AK122" s="4"/>
+    </row>
+    <row r="123" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F123" s="4"/>
+      <c r="AK123" s="4"/>
+    </row>
+    <row r="124" spans="6:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="4"/>
+      <c r="AK124" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
